--- a/Check.xlsx
+++ b/Check.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.krivov\Desktop\Diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.krivov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,15 +44,6 @@
     <t>Регистрация и авторизация</t>
   </si>
   <si>
-    <t>Управление задачами</t>
-  </si>
-  <si>
-    <t>Просмотр задач</t>
-  </si>
-  <si>
-    <t>Поиск задач</t>
-  </si>
-  <si>
     <t>Безопасность</t>
   </si>
   <si>
@@ -68,27 +59,9 @@
     <t>Восстановление пароля.</t>
   </si>
   <si>
-    <t>Создание задачи с обязательными полями.</t>
-  </si>
-  <si>
-    <t>Редактирование задачи.</t>
-  </si>
-  <si>
-    <t>Удаление задачи.</t>
-  </si>
-  <si>
     <t>Установка сроков и напоминаний.</t>
   </si>
   <si>
-    <t>Отображение задач в списке</t>
-  </si>
-  <si>
-    <t>Отображение задач в календаре</t>
-  </si>
-  <si>
-    <t>Фильтрация и сортировка задач.</t>
-  </si>
-  <si>
     <t>Поиск по ключевым словам</t>
   </si>
   <si>
@@ -102,6 +75,33 @@
   </si>
   <si>
     <t>Определение работы при высокой нагрузке</t>
+  </si>
+  <si>
+    <t>Управление новостями</t>
+  </si>
+  <si>
+    <t>Просмотр новостей</t>
+  </si>
+  <si>
+    <t>Поиск новостей</t>
+  </si>
+  <si>
+    <t>Создание новости с обязательными полями.</t>
+  </si>
+  <si>
+    <t>Редактирование новости.</t>
+  </si>
+  <si>
+    <t>Удаление новости.</t>
+  </si>
+  <si>
+    <t>Отображение новостей в списке</t>
+  </si>
+  <si>
+    <t>Отображение новостей в календаре</t>
+  </si>
+  <si>
+    <t>Фильтрация и сортировка новостей.</t>
   </si>
 </sst>
 </file>
@@ -124,15 +124,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF2C2D2E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2C2D2E"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -440,18 +440,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -461,65 +449,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,7 +804,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -815,147 +815,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>14</v>
+      <c r="A5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27"/>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A13"/>
@@ -964,8 +966,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
